--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_004/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_004/summary_statistics.xlsx
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02046783625730994</v>
+        <v>0.02309236947791165</v>
       </c>
       <c r="C3" t="n">
-        <v>117.6892240124139</v>
+        <v>109.711801833964</v>
       </c>
       <c r="D3" t="n">
-        <v>358.4468342555647</v>
+        <v>343.8385102229092</v>
       </c>
       <c r="E3" t="n">
-        <v>2.01264719090829e-06</v>
+        <v>9.987030627540679e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003854693264666382</v>
+        <v>0.0003867645413269953</v>
       </c>
       <c r="G3" t="n">
-        <v>2.410000000000001</v>
+        <v>2.921666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>2.045</v>
+        <v>1.803333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5166666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.2079352385786528</v>
+        <v>0.0148757803051247</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6214687870455708</v>
+        <v>0.6373195721567169</v>
       </c>
       <c r="L3" t="n">
-        <v>1.194621465223199</v>
+        <v>1.514599673771582</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.181674401984915</v>
+        <v>-0.9582060581168564</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="P3" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="Q3" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="R3" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03011861900201164</v>
+        <v>0.03344280189632991</v>
       </c>
       <c r="C4" t="n">
-        <v>61.91367877994595</v>
+        <v>78.56864710272589</v>
       </c>
       <c r="D4" t="n">
-        <v>154.645764026951</v>
+        <v>168.0057210164082</v>
       </c>
       <c r="E4" t="n">
-        <v>6.232106488632041e-06</v>
+        <v>1.376350367583989e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004004603020447152</v>
+        <v>0.0004174691746188628</v>
       </c>
       <c r="G4" t="n">
-        <v>3.684217369689069</v>
+        <v>4.959158337100095</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9558783342196372</v>
+        <v>0.8423064917170593</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6507275372101721</v>
+        <v>0.6207340287621397</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7084416844556182</v>
+        <v>0.7759203898127476</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3461178386506098</v>
+        <v>0.3722020579352026</v>
       </c>
       <c r="L4" t="n">
-        <v>1.395741010335211</v>
+        <v>1.394184881204603</v>
       </c>
       <c r="M4" t="n">
-        <v>0.454669217436069</v>
+        <v>0.4244955476225998</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>42.95171977344576</v>
+        <v>26.53948237579799</v>
       </c>
       <c r="D5" t="n">
-        <v>153.8959083394768</v>
+        <v>149.5949598276812</v>
       </c>
       <c r="E5" t="n">
-        <v>1.878504337823328e-08</v>
+        <v>1.017733100710941e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>2.204882598805248e-05</v>
+        <v>1.491401691664877e-05</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -725,31 +725,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.192674386793163</v>
+        <v>-1.053832042238883</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1036118214534361</v>
+        <v>0.1456911721670593</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.611282118089528</v>
+        <v>-0.6356692354680762</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.526661171859902</v>
+        <v>-2.019285534088266</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="P5" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="Q5" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="R5" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -762,16 +762,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>76.39638850937212</v>
+        <v>64.91526545022691</v>
       </c>
       <c r="D6" t="n">
-        <v>264.3713189507761</v>
+        <v>229.8223034535529</v>
       </c>
       <c r="E6" t="n">
-        <v>2.710446603607039e-07</v>
+        <v>1.874416198638664e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001254317040036473</v>
+        <v>0.0001315184618079118</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -783,31 +783,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.6603777157050137</v>
+        <v>-0.4772376629292264</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3573728255303431</v>
+        <v>0.3287298636637039</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0388217903513231</v>
+        <v>0.3550361327672941</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.400578399192712</v>
+        <v>-1.18160852517623</v>
       </c>
       <c r="N6" t="n">
         <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="P6" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="Q6" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="R6" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -820,52 +820,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>105.5019411193835</v>
+        <v>86.19386971393055</v>
       </c>
       <c r="D7" t="n">
-        <v>328.5155669766004</v>
+        <v>281.7129001188222</v>
       </c>
       <c r="E7" t="n">
-        <v>5.378955541361042e-07</v>
+        <v>5.450652381226821e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002449502137833669</v>
+        <v>0.0002563268317745153</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.3774150857793311</v>
+        <v>-0.1580610909561451</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5505055708735234</v>
+        <v>0.5089991719723914</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8300168138388675</v>
+        <v>1.234330997075722</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.179525044406483</v>
+        <v>-0.9985614451985901</v>
       </c>
       <c r="N7" t="n">
         <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="P7" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="Q7" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="R7" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
@@ -875,55 +875,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05847953216374269</v>
+        <v>0.06024096385542168</v>
       </c>
       <c r="C8" t="n">
-        <v>140.4849714054781</v>
+        <v>119.1150150293602</v>
       </c>
       <c r="D8" t="n">
-        <v>413.8496521380623</v>
+        <v>416.6136763416049</v>
       </c>
       <c r="E8" t="n">
-        <v>1.729050363683703e-06</v>
+        <v>1.208633934952263e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005078622790310222</v>
+        <v>0.0005492370251444998</v>
       </c>
       <c r="G8" t="n">
-        <v>3.525</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>2.325</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1057634436637727</v>
+        <v>0.2018718365440649</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8985078420268164</v>
+        <v>0.9016918137637571</v>
       </c>
       <c r="L8" t="n">
-        <v>2.395852769138603</v>
+        <v>2.576814170686204</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.9725333466326038</v>
+        <v>-0.7552771027432886</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="P8" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="Q8" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="R8" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +933,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1169590643274854</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="C9" t="n">
-        <v>378.9620099151904</v>
+        <v>371.3214860880939</v>
       </c>
       <c r="D9" t="n">
-        <v>979.0751374200519</v>
+        <v>805.1859259131829</v>
       </c>
       <c r="E9" t="n">
-        <v>4.811524170065601e-05</v>
+        <v>6.54545565297329e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001549329258484005</v>
+        <v>0.002656592872431298</v>
       </c>
       <c r="G9" t="n">
-        <v>15.8</v>
+        <v>15.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.216152104767195</v>
+        <v>2.236876422217433</v>
       </c>
       <c r="K9" t="n">
-        <v>1.516294096483425</v>
+        <v>1.762174863662898</v>
       </c>
       <c r="L9" t="n">
-        <v>5.086433265829428</v>
+        <v>5.131803487045389</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0792976415772777</v>
+        <v>0.5988726810763236</v>
       </c>
       <c r="N9" t="n">
         <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>672</v>
+        <v>947</v>
       </c>
       <c r="P9" t="n">
-        <v>842</v>
+        <v>1112</v>
       </c>
       <c r="Q9" t="n">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="R9" t="n">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
